--- a/medicine/Enfance/Richmal_Crompton/Richmal_Crompton.xlsx
+++ b/medicine/Enfance/Richmal_Crompton/Richmal_Crompton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richmal Crompton, née le 15 novembre 1890 à Bury et morte le 11 janvier 1969 à Chislehurst, est une écrivain britannique de romans et nouvelles pour enfants. Elle est connue pour avoir écrit la série humoristique William.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richmal Crompton entame une carrière de professeur d'anglais en 1914. Elle est atteinte d'une poliomyélite et perd l'usage de sa jambe droite en 1923. Elle se consacre alors exclusivement à l'écriture, et connait le succès avec sa série William. Trois ans après le début de sa carrière d'écrivain, elle peut acheter une maison pour elle et sa mère.
 Elle s'éteint en janvier 1969, dans sa maison de Chislehurst, en banlieue de Londres.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série des William
-Just William, 1922
+          <t>Série des William</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Just William, 1922
 More William, 1922
 William Again, 1923
 William the Fourth, 1924
@@ -585,9 +604,43 @@
 William and the Masked Ranger, 1966
 William the Superman, 1968
 William the Lawless, 1970
-School is a Waste of Time! and Other Ritings by Just William, 1990
-Autres romans et nouvelles
-The Innermost Room, 1923
+School is a Waste of Time! and Other Ritings by Just William, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Richmal_Crompton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richmal_Crompton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans et nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Innermost Room, 1923
 The Hidden Light, 1924
 Anne Morrison, 1925
 The Wildings, 1925
